--- a/Version3/SystemTestPlan_V3.xlsx
+++ b/Version3/SystemTestPlan_V3.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TESTER\GURU_BANK\GURU99_BANK\Version3\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7635" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Changelog" sheetId="2" r:id="rId1"/>
     <sheet name="Manager" sheetId="1" r:id="rId2"/>
     <sheet name="Customer" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1004,7 +999,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1273,7 +1268,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1308,7 +1303,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1485,7 +1480,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1499,19 +1494,19 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1796875" style="1"/>
-    <col min="5" max="5" width="24.54296875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.1796875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="40.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.1796875" style="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="24.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="40.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="12" spans="4:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D12" s="15" t="s">
         <v>0</v>
       </c>
@@ -1525,7 +1520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="4:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D13" s="16">
         <v>1</v>
       </c>
@@ -1539,7 +1534,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="4:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D14" s="16" t="s">
         <v>6</v>
       </c>
@@ -1566,20 +1561,20 @@
       <selection activeCell="C6" sqref="A1:H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="22.453125" style="13" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" style="13" customWidth="1"/>
     <col min="3" max="3" width="33" style="13" customWidth="1"/>
-    <col min="4" max="4" width="35.1796875" style="13" customWidth="1"/>
-    <col min="5" max="5" width="22.81640625" style="13" customWidth="1"/>
-    <col min="6" max="6" width="33.453125" style="13" customWidth="1"/>
-    <col min="7" max="7" width="34.26953125" style="13" customWidth="1"/>
-    <col min="8" max="8" width="13.54296875" style="13" customWidth="1"/>
-    <col min="9" max="16384" width="8.7265625" style="13"/>
+    <col min="4" max="4" width="35.140625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" style="13" customWidth="1"/>
+    <col min="6" max="6" width="33.42578125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="34.28515625" style="13" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="13" customWidth="1"/>
+    <col min="9" max="16384" width="8.7109375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -1605,7 +1600,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>16</v>
       </c>
@@ -1631,7 +1626,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>23</v>
       </c>
@@ -1655,7 +1650,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>27</v>
       </c>
@@ -1679,7 +1674,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="232.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="252" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>31</v>
       </c>
@@ -1705,7 +1700,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="263.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="283.5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>37</v>
       </c>
@@ -1729,7 +1724,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
@@ -1755,7 +1750,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="62" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>50</v>
       </c>
@@ -1779,7 +1774,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="62" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>55</v>
       </c>
@@ -1803,7 +1798,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="62" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>60</v>
       </c>
@@ -1827,7 +1822,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="62" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>64</v>
       </c>
@@ -1851,7 +1846,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>69</v>
       </c>
@@ -1877,7 +1872,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="108.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>76</v>
       </c>
@@ -1901,7 +1896,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="62" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>80</v>
       </c>
@@ -1925,7 +1920,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="62" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>83</v>
       </c>
@@ -1949,7 +1944,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="62" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>87</v>
       </c>
@@ -1973,7 +1968,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="62" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>90</v>
       </c>
@@ -1999,7 +1994,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>96</v>
       </c>
@@ -2021,7 +2016,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="124" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="126" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>101</v>
       </c>
@@ -2045,7 +2040,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="62" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>106</v>
       </c>
@@ -2069,7 +2064,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="62" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>111</v>
       </c>
@@ -2093,7 +2088,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="62" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>114</v>
       </c>
@@ -2117,7 +2112,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="62" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>118</v>
       </c>
@@ -2141,7 +2136,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>121</v>
       </c>
@@ -2165,7 +2160,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="62" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>127</v>
       </c>
@@ -2191,7 +2186,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>132</v>
       </c>
@@ -2215,7 +2210,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>136</v>
       </c>
@@ -2241,7 +2236,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>141</v>
       </c>
@@ -2265,7 +2260,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>146</v>
       </c>
@@ -2289,7 +2284,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>150</v>
       </c>
@@ -2313,7 +2308,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="108.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>154</v>
       </c>
@@ -2339,7 +2334,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>160</v>
       </c>
@@ -2361,7 +2356,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="62" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>164</v>
       </c>
@@ -2383,7 +2378,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>167</v>
       </c>
@@ -2407,7 +2402,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>172</v>
       </c>
@@ -2431,7 +2426,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="170.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>178</v>
       </c>
@@ -2475,23 +2470,23 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="22.453125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" style="3" customWidth="1"/>
     <col min="3" max="3" width="33" style="3" customWidth="1"/>
-    <col min="4" max="4" width="35.1796875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="22.81640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="33.453125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="33.1796875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12.54296875" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="8.7265625" style="3"/>
+    <col min="4" max="4" width="35.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="33.42578125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="33.140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="8.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -2517,7 +2512,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>183</v>
       </c>
@@ -2543,7 +2538,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>185</v>
       </c>
@@ -2567,7 +2562,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>186</v>
       </c>
@@ -2591,7 +2586,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>187</v>
       </c>
@@ -2617,7 +2612,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>193</v>
       </c>
@@ -2641,7 +2636,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="62" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>198</v>
       </c>
@@ -2665,7 +2660,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="4" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" s="4" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>203</v>
       </c>
@@ -2691,7 +2686,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="62" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>209</v>
       </c>
@@ -2717,7 +2712,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="31" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>215</v>
       </c>
@@ -2739,7 +2734,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="4" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" s="4" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>220</v>
       </c>
@@ -2763,7 +2758,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="93" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>225</v>
       </c>
@@ -2787,7 +2782,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>231</v>
       </c>
@@ -2811,7 +2806,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>237</v>
       </c>
@@ -2835,7 +2830,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>243</v>
       </c>
@@ -2861,7 +2856,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>247</v>
       </c>
@@ -2885,7 +2880,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>251</v>
       </c>
@@ -2911,7 +2906,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
         <v>256</v>
       </c>
@@ -2935,7 +2930,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="108.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>260</v>
       </c>
@@ -2959,7 +2954,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -2967,7 +2962,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -2975,7 +2970,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -2983,14 +2978,14 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -2998,7 +2993,7 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -3006,7 +3001,7 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -3014,7 +3009,7 @@
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -3022,7 +3017,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -3030,7 +3025,7 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -3038,7 +3033,7 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -3046,7 +3041,7 @@
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -3054,7 +3049,7 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -3062,21 +3057,21 @@
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
